--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2984.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2984.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.194128310008801</v>
+        <v>1.734583854675293</v>
       </c>
       <c r="B1">
-        <v>2.508242778229114</v>
+        <v>2.413678884506226</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.472666025161743</v>
       </c>
       <c r="D1">
-        <v>2.257606802476658</v>
+        <v>2.83130145072937</v>
       </c>
       <c r="E1">
-        <v>1.185646754532933</v>
+        <v>3.571537971496582</v>
       </c>
     </row>
   </sheetData>
